--- a/Output/productivity_agent_Mar_valid.xlsx
+++ b/Output/productivity_agent_Mar_valid.xlsx
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>20.90909090909091</v>
+        <v>85.90909090909092</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.3216783216783217</v>
+        <v>1.321678321678322</v>
       </c>
       <c r="CO2">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.5898654435655651</v>
+        <v>0.621657351080016</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>18.04511278195489</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.2776171197223829</v>
+        <v>0.291497975708502</v>
       </c>
       <c r="CO3">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.5659992248573438</v>
+        <v>0.5664574412500352</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.117647058823529</v>
+        <v>62.11764705882353</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>589.7695852534562</v>
+        <v>590.5990783410139</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03257918552036199</v>
+        <v>0.9556561085972851</v>
       </c>
       <c r="CO5">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.8123548006245953</v>
+        <v>0.8134973530867959</v>
       </c>
       <c r="CW5">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.6454149857524547</v>
+        <v>0.6735939560070485</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>53</v>
+        <v>758</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>7521</v>
+        <v>7590</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>9.271137026239067</v>
+        <v>132.5947521865889</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>300.6395736175883</v>
+        <v>303.3977348434377</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1426328773267549</v>
+        <v>2.03991926440906</v>
       </c>
       <c r="CO6">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.4141040958919949</v>
+        <v>0.417903216037793</v>
       </c>
       <c r="CW6">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.5826160414804868</v>
+        <v>0.6864388645246231</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>14.65116279069768</v>
+        <v>177.2093023255814</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="CN7">
-        <v>0.2254025044722719</v>
+        <v>2.726296958855099</v>
       </c>
       <c r="CO7">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="DA7">
-        <v>0.4912733886279861</v>
+        <v>0.5194764994432134</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>25.84615384615385</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.7674329015193888</v>
+        <v>0.8733148709414065</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>8.888888888888889</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="CN9">
-        <v>0.1367521367521368</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="CO9">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="DA9">
-        <v>0.6016529913142343</v>
+        <v>0.6082445870296971</v>
       </c>
     </row>
     <row r="10" spans="1:105">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>27</v>
+        <v>575</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>15.72815533980582</v>
+        <v>334.9514563106796</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="CN11">
-        <v>0.2419716206123973</v>
+        <v>5.153099327856609</v>
       </c>
       <c r="CO11">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.5581086146532791</v>
+        <v>0.625545776877803</v>
       </c>
     </row>
     <row r="12" spans="1:105">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>17.22772277227723</v>
+        <v>294.059405940594</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="CN12">
-        <v>0.265041888804265</v>
+        <v>4.523990860624524</v>
       </c>
       <c r="CO12">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.6085092667168306</v>
+        <v>0.670401906451197</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>359.9999999999999</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="CN13">
-        <v>0</v>
+        <v>5.538461538461537</v>
       </c>
       <c r="CO13">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="DA13">
-        <v>0.7289831542410898</v>
+        <v>0.7579389892805752</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>3582</v>
+        <v>3587</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>5.153374233128834</v>
+        <v>105.2760736196319</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>514.1626794258373</v>
+        <v>514.8803827751196</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="CN14">
-        <v>0.07928268050967437</v>
+        <v>1.619631901840491</v>
       </c>
       <c r="CO14">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="CV14">
-        <v>0.708213057060382</v>
+        <v>0.7092016291668315</v>
       </c>
       <c r="CW14">
         <v>0</v>
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="DA14">
-        <v>0.764752426957653</v>
+        <v>0.7982264248569501</v>
       </c>
     </row>
     <row r="15" spans="1:105">
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>17</v>
+        <v>887</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>9.444444444444445</v>
+        <v>492.7777777777778</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="CN15">
-        <v>0.1452991452991453</v>
+        <v>7.581196581196581</v>
       </c>
       <c r="CO15">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="DA15">
-        <v>0.5065550610849806</v>
+        <v>0.6695501743540943</v>
       </c>
     </row>
     <row r="16" spans="1:105">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>702</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>21.33333333333333</v>
+        <v>468</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="CN16">
-        <v>0.3282051282051282</v>
+        <v>7.2</v>
       </c>
       <c r="CO16">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="DA16">
-        <v>0.6397679418446426</v>
+        <v>0.7258207508694845</v>
       </c>
     </row>
     <row r="17" spans="1:105">
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>11.66666666666667</v>
+        <v>137.5</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="CN17">
-        <v>0.1794871794871795</v>
+        <v>2.115384615384615</v>
       </c>
       <c r="CO17">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.8276975228253529</v>
+        <v>0.8563127179361341</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>38</v>
+        <v>862</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>12.19251336898396</v>
+        <v>276.5775401069519</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="CN18">
-        <v>0.1875771287535994</v>
+        <v>4.25503907856849</v>
       </c>
       <c r="CO18">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.616852718534013</v>
+        <v>0.7206343237482831</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>154</v>
+        <v>802</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>36.66666666666666</v>
+        <v>190.9523809523809</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="CN19">
-        <v>0.5641025641025641</v>
+        <v>2.937728937728938</v>
       </c>
       <c r="CO19">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="DA19">
-        <v>0.6433589912867821</v>
+        <v>0.7394171005133512</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>2440</v>
+        <v>2458</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>38.68421052631579</v>
+        <v>221.8421052631579</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>365.0872817955112</v>
+        <v>367.7805486284289</v>
       </c>
       <c r="BK20">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="CN20">
-        <v>0.5951417004048584</v>
+        <v>3.412955465587045</v>
       </c>
       <c r="CO20">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="CV20">
-        <v>0.50287504379547</v>
+        <v>0.5065847777251087</v>
       </c>
       <c r="CW20">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.7727226552595277</v>
+        <v>0.800947975869427</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>14</v>
+        <v>731</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>8.235294117647058</v>
+        <v>429.9999999999999</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="CN21">
-        <v>0.1266968325791855</v>
+        <v>6.615384615384614</v>
       </c>
       <c r="CO21">
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.5799675774829531</v>
+        <v>0.6755134348304561</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>116.2790697674419</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="CN22">
-        <v>0</v>
+        <v>1.788908765652952</v>
       </c>
       <c r="CO22">
         <v>0</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="DA22">
-        <v>0.4806874287029159</v>
+        <v>0.5128011541091546</v>
       </c>
     </row>
     <row r="23" spans="1:105">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>70</v>
+        <v>1097</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>8151</v>
+        <v>8160</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>16.47058823529412</v>
+        <v>258.1176470588235</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>414.1066892464013</v>
+        <v>414.5639288738357</v>
       </c>
       <c r="BK23">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="CN23">
-        <v>0.253393665158371</v>
+        <v>3.971040723981901</v>
       </c>
       <c r="CO23">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="CV23">
-        <v>0.5703948887691478</v>
+        <v>0.5710246954185064</v>
       </c>
       <c r="CW23">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.6595378903557363</v>
+        <v>0.8039873120446663</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>1413</v>
+        <v>1435</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1.875</v>
+        <v>100.78125</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>294.375</v>
+        <v>298.9583333333334</v>
       </c>
       <c r="BK24">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="CN24">
-        <v>0.02884615384615385</v>
+        <v>1.550480769230769</v>
       </c>
       <c r="CO24">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="CV24">
-        <v>0.4054752066115703</v>
+        <v>0.4117883379247016</v>
       </c>
       <c r="CW24">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.6832504099581336</v>
+        <v>0.7155838659758001</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>8.095238095238095</v>
+        <v>190.9523809523809</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="CN25">
-        <v>0.1245421245421245</v>
+        <v>2.937728937728938</v>
       </c>
       <c r="CO25">
         <v>0</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="DA25">
-        <v>0.6226251679512671</v>
+        <v>0.6763803299866838</v>
       </c>
     </row>
     <row r="26" spans="1:105">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>206.3013698630137</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="CN26">
-        <v>0</v>
+        <v>3.173867228661749</v>
       </c>
       <c r="CO26">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.6027787307220179</v>
+        <v>0.6475069754502627</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>1525</v>
+        <v>1540</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>101.4159292035398</v>
       </c>
       <c r="BC27">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>267.5438596491228</v>
+        <v>270.1754385964912</v>
       </c>
       <c r="BK27">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="CN27">
-        <v>0</v>
+        <v>1.560245064669843</v>
       </c>
       <c r="CO27">
         <v>0</v>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="CV27">
-        <v>0.3685177130153207</v>
+        <v>0.3721424774056353</v>
       </c>
       <c r="CW27">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.7136765417121822</v>
+        <v>0.7394790939181377</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>246.5625</v>
       </c>
       <c r="BC28">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="CN28">
-        <v>0</v>
+        <v>3.793269230769231</v>
       </c>
       <c r="CO28">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="DA28">
-        <v>0.6270385320904603</v>
+        <v>0.662085338899935</v>
       </c>
     </row>
     <row r="29" spans="1:105">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>1.538461538461538</v>
+        <v>56.92307692307692</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="CN29">
-        <v>0.02366863905325444</v>
+        <v>0.8757396449704141</v>
       </c>
       <c r="CO29">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="DA29">
-        <v>0.6129047772009346</v>
+        <v>0.6227465569227677</v>
       </c>
     </row>
     <row r="30" spans="1:105">
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>15.90909090909091</v>
+        <v>120</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="CN30">
-        <v>0.2447552447552448</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="CO30">
         <v>0</v>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="DA30">
-        <v>0.592057085659102</v>
+        <v>0.6198051317846749</v>
       </c>
     </row>
     <row r="31" spans="1:105">
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>49</v>
+        <v>577</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>4505</v>
+        <v>4570</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>38.18181818181819</v>
+        <v>449.6103896103896</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>436.6720516962843</v>
+        <v>442.9725363489499</v>
       </c>
       <c r="BK31">
         <v>0</v>
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="CN31">
-        <v>0.5874125874125875</v>
+        <v>6.917082917082918</v>
       </c>
       <c r="CO31">
         <v>0</v>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="CV31">
-        <v>0.6014766552290417</v>
+        <v>0.6101550087451101</v>
       </c>
       <c r="CW31">
         <v>0</v>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="DA31">
-        <v>0.6635127910376124</v>
+        <v>0.7361264833764073</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>306</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>2.696629213483146</v>
+        <v>206.2921348314607</v>
       </c>
       <c r="BC32">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="CN32">
-        <v>0.04148660328435609</v>
+        <v>3.173725151253241</v>
       </c>
       <c r="CO32">
         <v>0</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="DA32">
-        <v>0.6680387271927423</v>
+        <v>0.7111718280389795</v>
       </c>
     </row>
     <row r="33" spans="1:105">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>26</v>
+        <v>702</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>37.14285714285715</v>
+        <v>1002.857142857143</v>
       </c>
       <c r="BC33">
         <v>0</v>
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="CN33">
-        <v>0.5714285714285715</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="CO33">
         <v>0</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="DA33">
-        <v>0.5856850488557152</v>
+        <v>0.6799448675868329</v>
       </c>
     </row>
     <row r="34" spans="1:105">
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>84</v>
+        <v>577</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>4330</v>
+        <v>4333</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>29.13294797687861</v>
+        <v>200.1156069364162</v>
       </c>
       <c r="BC34">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>422.4390243902439</v>
+        <v>422.7317073170732</v>
       </c>
       <c r="BK34">
         <v>0</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="CN34">
-        <v>0.4481991996442863</v>
+        <v>3.078701645175633</v>
       </c>
       <c r="CO34">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="CV34">
-        <v>0.5818719344218235</v>
+        <v>0.5822750789491367</v>
       </c>
       <c r="CW34">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="DA34">
-        <v>0.6484218318146096</v>
+        <v>0.713598593475248</v>
       </c>
     </row>
     <row r="35" spans="1:105">
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>445.8620689655173</v>
       </c>
       <c r="BC35">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="CN35">
-        <v>0</v>
+        <v>6.859416445623342</v>
       </c>
       <c r="CO35">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.8521968722982787</v>
+        <v>0.9117457652553441</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>14.85148514851485</v>
+        <v>72.47524752475248</v>
       </c>
       <c r="BC36">
         <v>0</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="CN36">
-        <v>0.2284843869002285</v>
+        <v>1.115003808073115</v>
       </c>
       <c r="CO36">
         <v>0</v>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="DA36">
-        <v>0.7675668496342507</v>
+        <v>0.7801619349540512</v>
       </c>
     </row>
     <row r="37" spans="1:105">
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>171</v>
+        <v>388</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>26.04060913705584</v>
+        <v>59.08629441624365</v>
       </c>
       <c r="BC37">
         <v>0</v>
@@ -13675,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="CN37">
-        <v>0.4006247559547052</v>
+        <v>0.9090199140960562</v>
       </c>
       <c r="CO37">
         <v>0</v>
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.7548075214741412</v>
+        <v>0.7824209337029381</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -14081,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>91</v>
+        <v>842</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>23.23404255319149</v>
+        <v>214.9787234042553</v>
       </c>
       <c r="BC39">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="CN39">
-        <v>0.3574468085106383</v>
+        <v>3.307364975450082</v>
       </c>
       <c r="CO39">
         <v>0</v>
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="DA39">
-        <v>0.8709468032384637</v>
+        <v>0.9750667745858307</v>
       </c>
     </row>
     <row r="40" spans="1:105">
@@ -14398,7 +14398,7 @@
         <v>4050</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -14425,7 +14425,7 @@
         <v>379</v>
       </c>
       <c r="Y40">
-        <v>5955</v>
+        <v>6028</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -14539,7 +14539,7 @@
         <v>360.952380952381</v>
       </c>
       <c r="BK40">
-        <v>1910.695187165775</v>
+        <v>1934.117647058823</v>
       </c>
       <c r="BL40">
         <v>0</v>
@@ -14653,7 +14653,7 @@
         <v>0.497179588088679</v>
       </c>
       <c r="CW40">
-        <v>2.631811552569939</v>
+        <v>2.664073894020418</v>
       </c>
       <c r="CX40">
         <v>0</v>
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="DA40">
-        <v>0.587640842703949</v>
+        <v>0.5886445122849239</v>
       </c>
     </row>
     <row r="41" spans="1:105">
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>3748</v>
+        <v>3757</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>15</v>
+        <v>228.75</v>
       </c>
       <c r="BC44">
         <v>0</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>575.140664961637</v>
+        <v>576.5217391304349</v>
       </c>
       <c r="BK44">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="CN44">
-        <v>0.2307692307692308</v>
+        <v>3.51923076923077</v>
       </c>
       <c r="CO44">
         <v>0</v>
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="CV44">
-        <v>0.7922047726744311</v>
+        <v>0.7941070786920591</v>
       </c>
       <c r="CW44">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="DA44">
-        <v>0.6737212221025684</v>
+        <v>0.7548794958510168</v>
       </c>
     </row>
     <row r="45" spans="1:105">
@@ -15983,7 +15983,7 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>558</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -16097,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>4.210526315789473</v>
+        <v>293.6842105263158</v>
       </c>
       <c r="BC45">
         <v>0</v>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="CN45">
-        <v>0.06477732793522267</v>
+        <v>4.518218623481781</v>
       </c>
       <c r="CO45">
         <v>0</v>
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="DA45">
-        <v>0.6016677171192821</v>
+        <v>0.7345714625884726</v>
       </c>
     </row>
     <row r="46" spans="1:105">
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>12</v>
+        <v>626</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>5.454545454545454</v>
+        <v>284.5454545454545</v>
       </c>
       <c r="BC46">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="CN46">
-        <v>0.08391608391608391</v>
+        <v>4.377622377622377</v>
       </c>
       <c r="CO46">
         <v>0</v>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="DA46">
-        <v>0.5247619455214096</v>
+        <v>0.6617620013031913</v>
       </c>
     </row>
     <row r="47" spans="1:105">
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>16</v>
+        <v>716</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>3814</v>
+        <v>3852</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>4.593301435406699</v>
+        <v>205.5502392344497</v>
       </c>
       <c r="BC47">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>363.2380952380953</v>
+        <v>366.8571428571429</v>
       </c>
       <c r="BK47">
         <v>0</v>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="CN47">
-        <v>0.07066617592933383</v>
+        <v>3.162311372837689</v>
       </c>
       <c r="CO47">
         <v>0</v>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="CV47">
-        <v>0.5003279548734095</v>
+        <v>0.5053128689492327</v>
       </c>
       <c r="CW47">
         <v>0</v>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>0.7040828857072026</v>
+        <v>0.8635363095828448</v>
       </c>
     </row>
     <row r="48" spans="1:105">
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -17251,7 +17251,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>3043</v>
+        <v>3322</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>43.36633663366336</v>
+        <v>273.8613861386138</v>
       </c>
       <c r="BC49">
         <v>0</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>380.375</v>
+        <v>415.25</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -17479,7 +17479,7 @@
         <v>0</v>
       </c>
       <c r="CN49">
-        <v>0.667174409748667</v>
+        <v>4.213252094440212</v>
       </c>
       <c r="CO49">
         <v>0</v>
@@ -17503,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="CV49">
-        <v>0.5239325068870524</v>
+        <v>0.571969696969697</v>
       </c>
       <c r="CW49">
         <v>0</v>
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.5235598145837523</v>
+        <v>0.6245163022409335</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="BC50">
         <v>0</v>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="CN50">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="CO50">
         <v>0</v>
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>0.5315070240328822</v>
+        <v>0.5663723172183022</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17885,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>603</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -17999,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>5.172413793103448</v>
+        <v>623.7931034482758</v>
       </c>
       <c r="BC51">
         <v>0</v>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="CN51">
-        <v>0.07957559681697611</v>
+        <v>9.59681697612732</v>
       </c>
       <c r="CO51">
         <v>0</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.4755311154991454</v>
+        <v>0.6424497728925533</v>
       </c>
     </row>
     <row r="52" spans="1:105">
@@ -18202,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>5</v>
+        <v>324</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -18633,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="BB53">
-        <v>3.448275862068966</v>
+        <v>223.448275862069</v>
       </c>
       <c r="BC53">
         <v>0</v>
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>368.2215743440233</v>
+        <v>369.9708454810495</v>
       </c>
       <c r="BK53">
         <v>0</v>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="CN53">
-        <v>0.05305039787798409</v>
+        <v>3.437665782493369</v>
       </c>
       <c r="CO53">
         <v>0</v>
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="CV53">
-        <v>0.5071922511625666</v>
+        <v>0.5096017155386358</v>
       </c>
       <c r="CW53">
         <v>0</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="DA53">
-        <v>0.6938799837006989</v>
+        <v>0.7745156977210512</v>
       </c>
     </row>
     <row r="54" spans="1:105">
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>564</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="BB54">
-        <v>4.044943820224719</v>
+        <v>380.2247191011236</v>
       </c>
       <c r="BC54">
         <v>0</v>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="CN54">
-        <v>0.06222990492653414</v>
+        <v>5.849611063094209</v>
       </c>
       <c r="CO54">
         <v>0</v>
@@ -19103,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.7611554729103261</v>
+        <v>0.8755661621766351</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="BB55">
-        <v>0</v>
+        <v>326.7692307692308</v>
       </c>
       <c r="BC55">
         <v>0</v>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="CN55">
-        <v>0</v>
+        <v>5.027218934911243</v>
       </c>
       <c r="CO55">
         <v>0</v>
@@ -19420,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="DA55">
-        <v>0.5743889606393002</v>
+        <v>0.6499600130836183</v>
       </c>
     </row>
     <row r="56" spans="1:105">
@@ -19470,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>550</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="BB56">
-        <v>4.363636363636364</v>
+        <v>600</v>
       </c>
       <c r="BC56">
         <v>0</v>
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="BJ56">
-        <v>377.0901639344262</v>
+        <v>377.2131147540984</v>
       </c>
       <c r="BK56">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="CN56">
-        <v>0.06713286713286715</v>
+        <v>9.23076923076923</v>
       </c>
       <c r="CO56">
         <v>0</v>
@@ -19722,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="CV56">
-        <v>0.5194079393036174</v>
+        <v>0.5195772930497223</v>
       </c>
       <c r="CW56">
         <v>0</v>
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="DA56">
-        <v>0.5838061681073846</v>
+        <v>0.8801510503108527</v>
       </c>
     </row>
     <row r="57" spans="1:105">
@@ -19787,7 +19787,7 @@
         <v>6883</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q57">
         <v>23</v>
@@ -19814,7 +19814,7 @@
         <v>212</v>
       </c>
       <c r="Y57">
-        <v>4281</v>
+        <v>4325</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -19901,7 +19901,7 @@
         <v>661.8269230769232</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="BC57">
         <v>20.29411764705882</v>
@@ -19928,7 +19928,7 @@
         <v>334.7368421052632</v>
       </c>
       <c r="BK57">
-        <v>1141.6</v>
+        <v>1153.333333333333</v>
       </c>
       <c r="BL57">
         <v>0</v>
@@ -20015,7 +20015,7 @@
         <v>0.827283653846154</v>
       </c>
       <c r="CN57">
-        <v>0</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="CO57">
         <v>0.3122171945701357</v>
@@ -20042,7 +20042,7 @@
         <v>0.4610700304480209</v>
       </c>
       <c r="CW57">
-        <v>1.572451790633609</v>
+        <v>1.588613406795225</v>
       </c>
       <c r="CX57">
         <v>0</v>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.5088886188615661</v>
+        <v>0.5109261582583686</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -20104,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="BB58">
-        <v>0</v>
+        <v>753.9130434782609</v>
       </c>
       <c r="BC58">
         <v>0</v>
@@ -20332,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="CN58">
-        <v>0</v>
+        <v>11.59866220735786</v>
       </c>
       <c r="CO58">
         <v>0</v>
@@ -20371,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.8539669102224251</v>
+        <v>0.8852741782389996</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -20535,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>3.75</v>
+        <v>42</v>
       </c>
       <c r="BC59">
         <v>0</v>
@@ -20649,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="CN59">
-        <v>0.0576923076923077</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="CO59">
         <v>0</v>
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
       <c r="DA59">
-        <v>0.5096016308435</v>
+        <v>0.5150572946605034</v>
       </c>
     </row>
     <row r="60" spans="1:105">
@@ -20765,7 +20765,7 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>3940</v>
+        <v>3961</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -20879,7 +20879,7 @@
         <v>0</v>
       </c>
       <c r="BK60">
-        <v>1921.951219512195</v>
+        <v>1932.19512195122</v>
       </c>
       <c r="BL60">
         <v>0</v>
@@ -20993,7 +20993,7 @@
         <v>0</v>
       </c>
       <c r="CW60">
-        <v>2.647315729355641</v>
+        <v>2.661425787811598</v>
       </c>
       <c r="CX60">
         <v>0</v>
@@ -21005,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="DA60">
-        <v>0.458299598617064</v>
+        <v>0.4586104039877809</v>
       </c>
     </row>
     <row r="61" spans="1:105">
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="BB62">
-        <v>7.563025210084033</v>
+        <v>204.2016806722689</v>
       </c>
       <c r="BC62">
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="CN62">
-        <v>0.1163542340012928</v>
+        <v>3.141564318034906</v>
       </c>
       <c r="CO62">
         <v>0</v>
@@ -21639,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.4589686191203128</v>
+        <v>0.5186305349307205</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>546.6666666666667</v>
       </c>
       <c r="BC63">
         <v>0</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="CN63">
-        <v>0</v>
+        <v>8.410256410256411</v>
       </c>
       <c r="CO63">
         <v>0</v>
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.5042633534097748</v>
+        <v>0.5169783387436078</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -22754,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="BB66">
-        <v>19.17721518987342</v>
+        <v>23.16455696202532</v>
       </c>
       <c r="BC66">
         <v>0</v>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="BJ66">
-        <v>470.2439024390245</v>
+        <v>472.1951219512196</v>
       </c>
       <c r="BK66">
         <v>0</v>
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="CN66">
-        <v>0.2950340798442064</v>
+        <v>0.3563777994157741</v>
       </c>
       <c r="CO66">
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="CV66">
-        <v>0.6477188738829538</v>
+        <v>0.6504065040650407</v>
       </c>
       <c r="CW66">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="DA66">
-        <v>0.4937041108706413</v>
+        <v>0.4958701396442088</v>
       </c>
     </row>
     <row r="67" spans="1:105">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="BB68">
-        <v>37.35849056603774</v>
+        <v>271.6981132075472</v>
       </c>
       <c r="BC68">
         <v>0</v>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="CN68">
-        <v>0.5747460087082729</v>
+        <v>4.179970972423803</v>
       </c>
       <c r="CO68">
         <v>0</v>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.7161470344681823</v>
+        <v>0.7377157129958856</v>
       </c>
     </row>
     <row r="69" spans="1:105">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="BB70">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="BC70">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="CN70">
-        <v>0</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="CO70">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="DA70">
-        <v>0.807671429927959</v>
+        <v>0.8101675816939864</v>
       </c>
     </row>
     <row r="71" spans="1:105">
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="X74">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="BB74">
-        <v>3.6</v>
+        <v>96</v>
       </c>
       <c r="BC74">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="BJ74">
-        <v>375.2459016393443</v>
+        <v>380.1639344262295</v>
       </c>
       <c r="BK74">
         <v>0</v>
@@ -25404,7 +25404,7 @@
         <v>0</v>
       </c>
       <c r="CN74">
-        <v>0.05538461538461538</v>
+        <v>1.476923076923077</v>
       </c>
       <c r="CO74">
         <v>0</v>
@@ -25428,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="CV74">
-        <v>0.5168676331120445</v>
+        <v>0.523641782956239</v>
       </c>
       <c r="CW74">
         <v>0</v>
@@ -25443,7 +25443,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.6381673095442858</v>
+        <v>0.6514728923270234</v>
       </c>
     </row>
     <row r="75" spans="1:105">
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -26127,7 +26127,7 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -26151,7 +26151,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>514</v>
+        <v>750</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="BB77">
-        <v>10.97142857142857</v>
+        <v>30.51428571428572</v>
       </c>
       <c r="BC77">
         <v>0</v>
@@ -26265,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="BJ77">
-        <v>453.5294117647059</v>
+        <v>661.7647058823529</v>
       </c>
       <c r="BK77">
         <v>0</v>
@@ -26355,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="CN77">
-        <v>0.1687912087912088</v>
+        <v>0.4694505494505495</v>
       </c>
       <c r="CO77">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>0</v>
       </c>
       <c r="CV77">
-        <v>0.6246961594555178</v>
+        <v>0.9115216334467671</v>
       </c>
       <c r="CW77">
         <v>0</v>
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="DA77">
-        <v>0.6125054115930453</v>
+        <v>0.6261051696256286</v>
       </c>
     </row>
     <row r="78" spans="1:105">
@@ -26444,7 +26444,7 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -26468,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="X78">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="Y78">
         <v>0</v>
@@ -26558,7 +26558,7 @@
         <v>0</v>
       </c>
       <c r="BB78">
-        <v>0</v>
+        <v>5184</v>
       </c>
       <c r="BC78">
         <v>0</v>
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
       <c r="BJ78">
-        <v>295.1327433628319</v>
+        <v>295.3982300884956</v>
       </c>
       <c r="BK78">
         <v>0</v>
@@ -26672,7 +26672,7 @@
         <v>0</v>
       </c>
       <c r="CN78">
-        <v>0</v>
+        <v>79.75384615384615</v>
       </c>
       <c r="CO78">
         <v>0</v>
@@ -26696,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="CV78">
-        <v>0.4065189302518346</v>
+        <v>0.4068846144469637</v>
       </c>
       <c r="CW78">
         <v>0</v>
@@ -26711,7 +26711,7 @@
         <v>0</v>
       </c>
       <c r="DA78">
-        <v>0.6021790892553381</v>
+        <v>0.6794930138152157</v>
       </c>
     </row>
     <row r="79" spans="1:105">
@@ -26761,7 +26761,7 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -26875,7 +26875,7 @@
         <v>0</v>
       </c>
       <c r="BB79">
-        <v>0</v>
+        <v>150.7894736842105</v>
       </c>
       <c r="BC79">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="CN79">
-        <v>0</v>
+        <v>2.319838056680162</v>
       </c>
       <c r="CO79">
         <v>0</v>
@@ -27028,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="DA79">
-        <v>0.6385284609654204</v>
+        <v>0.6699502560657042</v>
       </c>
     </row>
     <row r="80" spans="1:105">
@@ -27078,7 +27078,7 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -27192,7 +27192,7 @@
         <v>0</v>
       </c>
       <c r="BB80">
-        <v>0</v>
+        <v>265.2631578947369</v>
       </c>
       <c r="BC80">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="CN80">
-        <v>0</v>
+        <v>4.080971659919029</v>
       </c>
       <c r="CO80">
         <v>0</v>
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.5778915036373301</v>
+        <v>0.6084666067676383</v>
       </c>
     </row>
     <row r="81" spans="1:105">
@@ -27395,7 +27395,7 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -28663,7 +28663,7 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -28777,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="BB85">
-        <v>0</v>
+        <v>253.8461538461539</v>
       </c>
       <c r="BC85">
         <v>0</v>
@@ -28891,7 +28891,7 @@
         <v>0</v>
       </c>
       <c r="CN85">
-        <v>0</v>
+        <v>3.905325443786983</v>
       </c>
       <c r="CO85">
         <v>0</v>
@@ -28930,7 +28930,7 @@
         <v>0</v>
       </c>
       <c r="DA85">
-        <v>0.6197368200830341</v>
+        <v>0.6389821691236826</v>
       </c>
     </row>
     <row r="86" spans="1:105">
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="BB86">
-        <v>1.791044776119403</v>
+        <v>88.65671641791045</v>
       </c>
       <c r="BC86">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="CN86">
-        <v>0.02755453501722159</v>
+        <v>1.363949483352468</v>
       </c>
       <c r="CO86">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="DA86">
-        <v>0.7304955931705913</v>
+        <v>0.7493895500261435</v>
       </c>
     </row>
     <row r="87" spans="1:105">
@@ -29297,7 +29297,7 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -29614,7 +29614,7 @@
         <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -30565,7 +30565,7 @@
         <v>0</v>
       </c>
       <c r="P91">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -30679,7 +30679,7 @@
         <v>0</v>
       </c>
       <c r="BB91">
-        <v>20</v>
+        <v>177.8571428571429</v>
       </c>
       <c r="BC91">
         <v>0</v>
@@ -30793,7 +30793,7 @@
         <v>0</v>
       </c>
       <c r="CN91">
-        <v>0.3076923076923077</v>
+        <v>2.736263736263736</v>
       </c>
       <c r="CO91">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         <v>0</v>
       </c>
       <c r="DA91">
-        <v>0.691461713016135</v>
+        <v>0.7321153598873985</v>
       </c>
     </row>
     <row r="92" spans="1:105">
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -30906,7 +30906,7 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -30996,7 +30996,7 @@
         <v>0</v>
       </c>
       <c r="BB92">
-        <v>0.7499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BC92">
         <v>0</v>
@@ -31020,7 +31020,7 @@
         <v>0</v>
       </c>
       <c r="BJ92">
-        <v>448.0434782608696</v>
+        <v>451.9565217391304</v>
       </c>
       <c r="BK92">
         <v>0</v>
@@ -31110,7 +31110,7 @@
         <v>0</v>
       </c>
       <c r="CN92">
-        <v>0.01153846153846154</v>
+        <v>0.02307692307692307</v>
       </c>
       <c r="CO92">
         <v>0</v>
@@ -31134,7 +31134,7 @@
         <v>0</v>
       </c>
       <c r="CV92">
-        <v>0.6171397772188286</v>
+        <v>0.6225296442687747</v>
       </c>
       <c r="CW92">
         <v>0</v>
@@ -31149,7 +31149,7 @@
         <v>0</v>
       </c>
       <c r="DA92">
-        <v>0.7167898165984292</v>
+        <v>0.7170901223532804</v>
       </c>
     </row>
     <row r="93" spans="1:105">
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="P93">
-        <v>34</v>
+        <v>2006</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -31223,7 +31223,7 @@
         <v>0</v>
       </c>
       <c r="X93">
-        <v>15813</v>
+        <v>15817</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -31313,7 +31313,7 @@
         <v>0</v>
       </c>
       <c r="BB93">
-        <v>15</v>
+        <v>885</v>
       </c>
       <c r="BC93">
         <v>0</v>
@@ -31337,7 +31337,7 @@
         <v>0</v>
       </c>
       <c r="BJ93">
-        <v>382.1103503826018</v>
+        <v>382.2070076520339</v>
       </c>
       <c r="BK93">
         <v>0</v>
@@ -31427,7 +31427,7 @@
         <v>0</v>
       </c>
       <c r="CN93">
-        <v>0.2307692307692308</v>
+        <v>13.61538461538461</v>
       </c>
       <c r="CO93">
         <v>0</v>
@@ -31451,7 +31451,7 @@
         <v>0</v>
       </c>
       <c r="CV93">
-        <v>0.5263227966702504</v>
+        <v>0.5264559334050054</v>
       </c>
       <c r="CW93">
         <v>0</v>
@@ -31466,7 +31466,7 @@
         <v>0</v>
       </c>
       <c r="DA93">
-        <v>0.4033840978011246</v>
+        <v>0.786112344767719</v>
       </c>
     </row>
     <row r="94" spans="1:105">
@@ -31516,7 +31516,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -31833,7 +31833,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -32177,7 +32177,7 @@
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -32267,7 +32267,7 @@
         <v>0</v>
       </c>
       <c r="BC96">
-        <v>13.25516815797593</v>
+        <v>13.34773218142549</v>
       </c>
       <c r="BD96">
         <v>0</v>
@@ -32291,7 +32291,7 @@
         <v>0</v>
       </c>
       <c r="BK96">
-        <v>0</v>
+        <v>22.74193548387096</v>
       </c>
       <c r="BL96">
         <v>0</v>
@@ -32381,7 +32381,7 @@
         <v>0</v>
       </c>
       <c r="CO96">
-        <v>0.2039256639688605</v>
+        <v>0.2053497258680844</v>
       </c>
       <c r="CP96">
         <v>0</v>
@@ -32405,7 +32405,7 @@
         <v>0</v>
       </c>
       <c r="CW96">
-        <v>0</v>
+        <v>0.0313249800053319</v>
       </c>
       <c r="CX96">
         <v>0</v>
@@ -32417,7 +32417,7 @@
         <v>0</v>
       </c>
       <c r="DA96">
-        <v>0.1912393162393162</v>
+        <v>0.1936987150055332</v>
       </c>
     </row>
     <row r="97" spans="1:105">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>0</v>
       </c>
       <c r="BB97">
-        <v>30.73170731707317</v>
+        <v>204.1463414634146</v>
       </c>
       <c r="BC97">
         <v>0</v>
@@ -32695,7 +32695,7 @@
         <v>0</v>
       </c>
       <c r="CN97">
-        <v>0.4727954971857411</v>
+        <v>3.140712945590995</v>
       </c>
       <c r="CO97">
         <v>0</v>
@@ -32734,7 +32734,7 @@
         <v>0</v>
       </c>
       <c r="DA97">
-        <v>0.6673809254162256</v>
+        <v>0.6955546834032482</v>
       </c>
     </row>
     <row r="98" spans="1:105">
@@ -32784,7 +32784,7 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>14</v>
+        <v>627</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -32898,7 +32898,7 @@
         <v>0</v>
       </c>
       <c r="BB98">
-        <v>5.6</v>
+        <v>250.8</v>
       </c>
       <c r="BC98">
         <v>0</v>
@@ -33012,7 +33012,7 @@
         <v>0</v>
       </c>
       <c r="CN98">
-        <v>0.08615384615384615</v>
+        <v>3.858461538461539</v>
       </c>
       <c r="CO98">
         <v>0</v>
@@ -33051,7 +33051,7 @@
         <v>0</v>
       </c>
       <c r="DA98">
-        <v>0.4872460950858878</v>
+        <v>0.5589447967896579</v>
       </c>
     </row>
     <row r="99" spans="1:105">
@@ -33101,7 +33101,7 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -33125,7 +33125,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="BB99">
-        <v>11.53846153846154</v>
+        <v>98.46153846153845</v>
       </c>
       <c r="BC99">
         <v>0</v>
@@ -33239,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="BJ99">
-        <v>558.1818181818181</v>
+        <v>558.6363636363636</v>
       </c>
       <c r="BK99">
         <v>0</v>
@@ -33329,7 +33329,7 @@
         <v>0</v>
       </c>
       <c r="CN99">
-        <v>0.1775147928994083</v>
+        <v>1.514792899408284</v>
       </c>
       <c r="CO99">
         <v>0</v>
@@ -33353,7 +33353,7 @@
         <v>0</v>
       </c>
       <c r="CV99">
-        <v>0.7688454795892812</v>
+        <v>0.7694715752566992</v>
       </c>
       <c r="CW99">
         <v>0</v>
@@ -33368,7 +33368,7 @@
         <v>0</v>
       </c>
       <c r="DA99">
-        <v>0.7304907387829375</v>
+        <v>0.7540857675272544</v>
       </c>
     </row>
     <row r="100" spans="1:105">
@@ -33735,7 +33735,7 @@
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -34052,7 +34052,7 @@
         <v>0</v>
       </c>
       <c r="P102">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -34166,7 +34166,7 @@
         <v>0</v>
       </c>
       <c r="BB102">
-        <v>3.39622641509434</v>
+        <v>120.377358490566</v>
       </c>
       <c r="BC102">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="CN102">
-        <v>0.05224963715529753</v>
+        <v>1.851959361393324</v>
       </c>
       <c r="CO102">
         <v>0</v>
@@ -34319,7 +34319,7 @@
         <v>0</v>
       </c>
       <c r="DA102">
-        <v>0.4921043812698591</v>
+        <v>0.5363732312317784</v>
       </c>
     </row>
     <row r="103" spans="1:105">
@@ -34369,7 +34369,7 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>112</v>
+        <v>774</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -34393,7 +34393,7 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>6476</v>
+        <v>7774</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -34483,7 +34483,7 @@
         <v>0</v>
       </c>
       <c r="BB103">
-        <v>39.52941176470588</v>
+        <v>273.1764705882353</v>
       </c>
       <c r="BC103">
         <v>0</v>
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="BJ103">
-        <v>473.8536585365853</v>
+        <v>568.8292682926829</v>
       </c>
       <c r="BK103">
         <v>0</v>
@@ -34597,7 +34597,7 @@
         <v>0</v>
       </c>
       <c r="CN103">
-        <v>0.6081447963800906</v>
+        <v>4.202714932126697</v>
       </c>
       <c r="CO103">
         <v>0</v>
@@ -34621,7 +34621,7 @@
         <v>0</v>
       </c>
       <c r="CV103">
-        <v>0.6526909897198144</v>
+        <v>0.7835113888328965</v>
       </c>
       <c r="CW103">
         <v>0</v>
@@ -34636,7 +34636,7 @@
         <v>0</v>
       </c>
       <c r="DA103">
-        <v>0.6054831490334782</v>
+        <v>0.6973202303873073</v>
       </c>
     </row>
     <row r="104" spans="1:105">
@@ -35003,7 +35003,7 @@
         <v>0</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -35117,7 +35117,7 @@
         <v>0</v>
       </c>
       <c r="BB105">
-        <v>2.045454545454545</v>
+        <v>189.5454545454546</v>
       </c>
       <c r="BC105">
         <v>0</v>
@@ -35231,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="CN105">
-        <v>0.03146853146853146</v>
+        <v>2.916083916083916</v>
       </c>
       <c r="CO105">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="DA105">
-        <v>0.5254406847544291</v>
+        <v>0.6225880838536078</v>
       </c>
     </row>
     <row r="106" spans="1:105">
@@ -35320,7 +35320,7 @@
         <v>0</v>
       </c>
       <c r="P106">
-        <v>164</v>
+        <v>4530</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -35344,7 +35344,7 @@
         <v>0</v>
       </c>
       <c r="X106">
-        <v>33741</v>
+        <v>33750</v>
       </c>
       <c r="Y106">
         <v>0</v>
@@ -35434,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="BB106">
-        <v>13.97727272727273</v>
+        <v>386.0795454545454</v>
       </c>
       <c r="BC106">
         <v>0</v>
@@ -35458,7 +35458,7 @@
         <v>0</v>
       </c>
       <c r="BJ106">
-        <v>363.3925686591276</v>
+        <v>363.4894991922455</v>
       </c>
       <c r="BK106">
         <v>0</v>
@@ -35548,7 +35548,7 @@
         <v>0</v>
       </c>
       <c r="CN106">
-        <v>0.215034965034965</v>
+        <v>5.939685314685314</v>
       </c>
       <c r="CO106">
         <v>0</v>
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="CV106">
-        <v>0.5005407281806166</v>
+        <v>0.500674241311633</v>
       </c>
       <c r="CW106">
         <v>0</v>
@@ -35587,7 +35587,7 @@
         <v>0</v>
       </c>
       <c r="DA106">
-        <v>0.4444524906369599</v>
+        <v>0.9082004942962717</v>
       </c>
     </row>
     <row r="107" spans="1:105">
@@ -35954,7 +35954,7 @@
         <v>0</v>
       </c>
       <c r="P108">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -36068,7 +36068,7 @@
         <v>0</v>
       </c>
       <c r="BB108">
-        <v>8.89589905362776</v>
+        <v>9.274447949526815</v>
       </c>
       <c r="BC108">
         <v>0</v>
@@ -36182,7 +36182,7 @@
         <v>0</v>
       </c>
       <c r="CN108">
-        <v>0.1368599854404271</v>
+        <v>0.1426838146081048</v>
       </c>
       <c r="CO108">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="DA108">
-        <v>1.047949369783411</v>
+        <v>1.048152937304213</v>
       </c>
     </row>
     <row r="109" spans="1:105">
@@ -36271,7 +36271,7 @@
         <v>0</v>
       </c>
       <c r="P109">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="BB109">
-        <v>10.48192771084337</v>
+        <v>20.24096385542169</v>
       </c>
       <c r="BC109">
         <v>0</v>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
       <c r="CN109">
-        <v>0.1612604263206673</v>
+        <v>0.3113994439295644</v>
       </c>
       <c r="CO109">
         <v>0</v>
@@ -36538,7 +36538,7 @@
         <v>0</v>
       </c>
       <c r="DA109">
-        <v>0.8163198050863811</v>
+        <v>0.8190519994432192</v>
       </c>
     </row>
     <row r="110" spans="1:105">
@@ -36588,7 +36588,7 @@
         <v>0</v>
       </c>
       <c r="P110">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -36702,7 +36702,7 @@
         <v>0</v>
       </c>
       <c r="BB110">
-        <v>14.61538461538461</v>
+        <v>199.2307692307692</v>
       </c>
       <c r="BC110">
         <v>0</v>
@@ -36816,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="CN110">
-        <v>0.2248520710059171</v>
+        <v>3.06508875739645</v>
       </c>
       <c r="CO110">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="DA110">
-        <v>0.4929854626996127</v>
+        <v>0.5177632796706967</v>
       </c>
     </row>
     <row r="111" spans="1:105">
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="X114">
-        <v>765</v>
+        <v>812</v>
       </c>
       <c r="Y114">
         <v>0</v>
@@ -37970,7 +37970,7 @@
         <v>0</v>
       </c>
       <c r="BB114">
-        <v>27.39622641509434</v>
+        <v>57.05660377358491</v>
       </c>
       <c r="BC114">
         <v>0</v>
@@ -37994,7 +37994,7 @@
         <v>0</v>
       </c>
       <c r="BJ114">
-        <v>515.7303370786517</v>
+        <v>547.4157303370787</v>
       </c>
       <c r="BK114">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="CN114">
-        <v>0.4214804063860668</v>
+        <v>0.8777939042089986</v>
       </c>
       <c r="CO114">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="CV114">
-        <v>0.7103723651221098</v>
+        <v>0.7540161574890891</v>
       </c>
       <c r="CW114">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="DA114">
-        <v>0.5680803830958632</v>
+        <v>0.6308291887488235</v>
       </c>
     </row>
     <row r="115" spans="1:105">
@@ -38173,7 +38173,7 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>27</v>
+        <v>2270</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -38197,7 +38197,7 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>23941</v>
+        <v>23944</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -38287,7 +38287,7 @@
         <v>0</v>
       </c>
       <c r="BB115">
-        <v>5.684210526315789</v>
+        <v>477.8947368421053</v>
       </c>
       <c r="BC115">
         <v>0</v>
@@ -38311,7 +38311,7 @@
         <v>0</v>
       </c>
       <c r="BJ115">
-        <v>512.1069518716578</v>
+        <v>512.1711229946524</v>
       </c>
       <c r="BK115">
         <v>0</v>
@@ -38401,7 +38401,7 @@
         <v>0</v>
       </c>
       <c r="CN115">
-        <v>0.0874493927125506</v>
+        <v>7.352226720647773</v>
       </c>
       <c r="CO115">
         <v>0</v>
@@ -38425,7 +38425,7 @@
         <v>0</v>
       </c>
       <c r="CV115">
-        <v>0.7053814764072421</v>
+        <v>0.7054698663838187</v>
       </c>
       <c r="CW115">
         <v>0</v>
@@ -38440,7 +38440,7 @@
         <v>0</v>
       </c>
       <c r="DA115">
-        <v>0.5653513645244301</v>
+        <v>0.8711265376410626</v>
       </c>
     </row>
     <row r="116" spans="1:105">
@@ -38490,7 +38490,7 @@
         <v>0</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>883</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -38604,7 +38604,7 @@
         <v>0</v>
       </c>
       <c r="BB116">
-        <v>4.11764705882353</v>
+        <v>519.4117647058823</v>
       </c>
       <c r="BC116">
         <v>0</v>
@@ -38718,7 +38718,7 @@
         <v>0</v>
       </c>
       <c r="CN116">
-        <v>0.06334841628959277</v>
+        <v>7.990950226244343</v>
       </c>
       <c r="CO116">
         <v>0</v>
@@ -38757,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="DA116">
-        <v>0.5168676577460587</v>
+        <v>0.6111558322581139</v>
       </c>
     </row>
     <row r="117" spans="1:105">
@@ -38807,7 +38807,7 @@
         <v>0</v>
       </c>
       <c r="P117">
-        <v>155</v>
+        <v>4022</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -38831,7 +38831,7 @@
         <v>0</v>
       </c>
       <c r="X117">
-        <v>32772</v>
+        <v>32800</v>
       </c>
       <c r="Y117">
         <v>0</v>
@@ -38921,7 +38921,7 @@
         <v>0</v>
       </c>
       <c r="BB117">
-        <v>13.19148936170212</v>
+        <v>342.2978723404255</v>
       </c>
       <c r="BC117">
         <v>0</v>
@@ -38945,7 +38945,7 @@
         <v>0</v>
       </c>
       <c r="BJ117">
-        <v>417.034994697773</v>
+        <v>417.3913043478261</v>
       </c>
       <c r="BK117">
         <v>0</v>
@@ -39035,7 +39035,7 @@
         <v>0</v>
       </c>
       <c r="CN117">
-        <v>0.2029459901800327</v>
+        <v>5.266121112929623</v>
       </c>
       <c r="CO117">
         <v>0</v>
@@ -39059,7 +39059,7 @@
         <v>0</v>
       </c>
       <c r="CV117">
-        <v>0.5744283673523044</v>
+        <v>0.5749191519942508</v>
       </c>
       <c r="CW117">
         <v>0</v>
@@ -39074,7 +39074,7 @@
         <v>0</v>
       </c>
       <c r="DA117">
-        <v>0.458826034328622</v>
+        <v>0.8729538617054609</v>
       </c>
     </row>
     <row r="118" spans="1:105">
@@ -39124,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="P118">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -39238,7 +39238,7 @@
         <v>0</v>
       </c>
       <c r="BB118">
-        <v>8.148148148148147</v>
+        <v>108.8888888888889</v>
       </c>
       <c r="BC118">
         <v>0</v>
@@ -39352,7 +39352,7 @@
         <v>0</v>
       </c>
       <c r="CN118">
-        <v>0.1253561253561253</v>
+        <v>1.675213675213675</v>
       </c>
       <c r="CO118">
         <v>0</v>
@@ -39391,7 +39391,7 @@
         <v>0</v>
       </c>
       <c r="DA118">
-        <v>0.4676541220616651</v>
+        <v>0.4838109382184813</v>
       </c>
     </row>
     <row r="119" spans="1:105">
@@ -40075,7 +40075,7 @@
         <v>0</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -41660,10 +41660,10 @@
         <v>0</v>
       </c>
       <c r="P126">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q126">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -41687,7 +41687,7 @@
         <v>541</v>
       </c>
       <c r="Y126">
-        <v>6551</v>
+        <v>6605</v>
       </c>
       <c r="Z126">
         <v>0</v>
@@ -41774,10 +41774,10 @@
         <v>0</v>
       </c>
       <c r="BB126">
-        <v>45.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="BC126">
-        <v>16.49315068493151</v>
+        <v>17.6986301369863</v>
       </c>
       <c r="BD126">
         <v>0</v>
@@ -41801,7 +41801,7 @@
         <v>901.6666666666667</v>
       </c>
       <c r="BK126">
-        <v>2124.648648648649</v>
+        <v>2142.162162162163</v>
       </c>
       <c r="BL126">
         <v>0</v>
@@ -41888,10 +41888,10 @@
         <v>0</v>
       </c>
       <c r="CN126">
-        <v>0.7015384615384616</v>
+        <v>1.070769230769231</v>
       </c>
       <c r="CO126">
-        <v>0.253740779768177</v>
+        <v>0.272286617492097</v>
       </c>
       <c r="CP126">
         <v>0</v>
@@ -41915,7 +41915,7 @@
         <v>1.241965105601469</v>
       </c>
       <c r="CW126">
-        <v>2.926513290149654</v>
+        <v>2.950636587000224</v>
       </c>
       <c r="CX126">
         <v>0</v>
@@ -41927,7 +41927,7 @@
         <v>0</v>
       </c>
       <c r="DA126">
-        <v>0.4621078762711786</v>
+        <v>0.4747349313196578</v>
       </c>
     </row>
     <row r="127" spans="1:105">
@@ -42004,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>10402</v>
+        <v>10517</v>
       </c>
       <c r="Z127">
         <v>0</v>
@@ -42118,7 +42118,7 @@
         <v>0</v>
       </c>
       <c r="BK127">
-        <v>1944.299065420561</v>
+        <v>1965.794392523365</v>
       </c>
       <c r="BL127">
         <v>0</v>
@@ -42232,7 +42232,7 @@
         <v>0</v>
       </c>
       <c r="CW127">
-        <v>2.678097886254216</v>
+        <v>2.707705774825571</v>
       </c>
       <c r="CX127">
         <v>0</v>
@@ -42244,7 +42244,7 @@
         <v>0</v>
       </c>
       <c r="DA127">
-        <v>0.5476864222534362</v>
+        <v>0.5490777459588095</v>
       </c>
     </row>
     <row r="128" spans="1:105">
@@ -42294,7 +42294,7 @@
         <v>0</v>
       </c>
       <c r="P128">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="Q128">
         <v>0</v>
@@ -42408,7 +42408,7 @@
         <v>0</v>
       </c>
       <c r="BB128">
-        <v>41.93548387096774</v>
+        <v>229.6774193548387</v>
       </c>
       <c r="BC128">
         <v>0</v>
@@ -42522,7 +42522,7 @@
         <v>0</v>
       </c>
       <c r="CN128">
-        <v>0.6451612903225806</v>
+        <v>3.533498759305211</v>
       </c>
       <c r="CO128">
         <v>0</v>
@@ -42561,7 +42561,7 @@
         <v>0</v>
       </c>
       <c r="DA128">
-        <v>0.6214734042899729</v>
+        <v>0.6528463760974227</v>
       </c>
     </row>
     <row r="129" spans="1:105">
@@ -42611,7 +42611,7 @@
         <v>0</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -42725,7 +42725,7 @@
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>1.414141414141414</v>
+        <v>20.2020202020202</v>
       </c>
       <c r="BC129">
         <v>0</v>
@@ -42839,7 +42839,7 @@
         <v>0</v>
       </c>
       <c r="CN129">
-        <v>0.02175602175602176</v>
+        <v>0.3108003108003108</v>
       </c>
       <c r="CO129">
         <v>0</v>
@@ -42878,7 +42878,7 @@
         <v>0</v>
       </c>
       <c r="DA129">
-        <v>0.5544575910272275</v>
+        <v>0.5649740866594893</v>
       </c>
     </row>
     <row r="130" spans="1:105">
@@ -42928,7 +42928,7 @@
         <v>0</v>
       </c>
       <c r="P130">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -43042,7 +43042,7 @@
         <v>0</v>
       </c>
       <c r="BB130">
-        <v>23.57142857142857</v>
+        <v>25.71428571428572</v>
       </c>
       <c r="BC130">
         <v>0</v>
@@ -43156,7 +43156,7 @@
         <v>0</v>
       </c>
       <c r="CN130">
-        <v>0.3626373626373626</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="CO130">
         <v>0</v>
@@ -43195,7 +43195,7 @@
         <v>0</v>
       </c>
       <c r="DA130">
-        <v>0.7391941558299107</v>
+        <v>0.7396138793370504</v>
       </c>
     </row>
     <row r="131" spans="1:105">
@@ -43245,7 +43245,7 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -43359,7 +43359,7 @@
         <v>0</v>
       </c>
       <c r="BB131">
-        <v>8.951612903225808</v>
+        <v>24.19354838709678</v>
       </c>
       <c r="BC131">
         <v>0</v>
@@ -43473,7 +43473,7 @@
         <v>0</v>
       </c>
       <c r="CN131">
-        <v>0.1377171215880894</v>
+        <v>0.3722084367245658</v>
       </c>
       <c r="CO131">
         <v>0</v>
@@ -43512,7 +43512,7 @@
         <v>0</v>
       </c>
       <c r="DA131">
-        <v>0.7557391241258192</v>
+        <v>0.7622894559746417</v>
       </c>
     </row>
     <row r="132" spans="1:105">
@@ -43562,7 +43562,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -43676,7 +43676,7 @@
         <v>0</v>
       </c>
       <c r="BB132">
-        <v>1.714285714285714</v>
+        <v>115.4285714285714</v>
       </c>
       <c r="BC132">
         <v>0</v>
@@ -43790,7 +43790,7 @@
         <v>0</v>
       </c>
       <c r="CN132">
-        <v>0.02637362637362637</v>
+        <v>1.775824175824176</v>
       </c>
       <c r="CO132">
         <v>0</v>
@@ -43829,7 +43829,7 @@
         <v>0</v>
       </c>
       <c r="DA132">
-        <v>0.4342168008568661</v>
+        <v>0.4611551067217008</v>
       </c>
     </row>
     <row r="133" spans="1:105">
@@ -43879,7 +43879,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>77</v>
+        <v>624</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -43993,7 +43993,7 @@
         <v>0</v>
       </c>
       <c r="BB133">
-        <v>13.08781869688385</v>
+        <v>106.0623229461756</v>
       </c>
       <c r="BC133">
         <v>0</v>
@@ -44107,7 +44107,7 @@
         <v>0</v>
       </c>
       <c r="CN133">
-        <v>0.2013510568751362</v>
+        <v>1.631728045325779</v>
       </c>
       <c r="CO133">
         <v>0</v>
@@ -44146,7 +44146,7 @@
         <v>0</v>
       </c>
       <c r="DA133">
-        <v>0.5199579037272085</v>
+        <v>0.5806384802111739</v>
       </c>
     </row>
     <row r="134" spans="1:105">
@@ -44196,7 +44196,7 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -44310,7 +44310,7 @@
         <v>0</v>
       </c>
       <c r="BB134">
-        <v>23.15789473684211</v>
+        <v>41.57894736842105</v>
       </c>
       <c r="BC134">
         <v>0</v>
@@ -44424,7 +44424,7 @@
         <v>0</v>
       </c>
       <c r="CN134">
-        <v>0.3562753036437247</v>
+        <v>0.6396761133603239</v>
       </c>
       <c r="CO134">
         <v>0</v>
@@ -44463,7 +44463,7 @@
         <v>0</v>
       </c>
       <c r="DA134">
-        <v>0.6557209941373029</v>
+        <v>0.6608297373864637</v>
       </c>
     </row>
     <row r="135" spans="1:105">
@@ -45147,7 +45147,7 @@
         <v>0</v>
       </c>
       <c r="P137">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -45171,7 +45171,7 @@
         <v>0</v>
       </c>
       <c r="X137">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="Y137">
         <v>0</v>
@@ -45261,7 +45261,7 @@
         <v>0</v>
       </c>
       <c r="BB137">
-        <v>2.857142857142857</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="BC137">
         <v>0</v>
@@ -45285,7 +45285,7 @@
         <v>0</v>
       </c>
       <c r="BJ137">
-        <v>107.1264367816092</v>
+        <v>109.8850574712644</v>
       </c>
       <c r="BK137">
         <v>0</v>
@@ -45375,7 +45375,7 @@
         <v>0</v>
       </c>
       <c r="CN137">
-        <v>0.04395604395604396</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="CO137">
         <v>0</v>
@@ -45399,7 +45399,7 @@
         <v>0</v>
       </c>
       <c r="CV137">
-        <v>0.147557075456762</v>
+        <v>0.151356828472816</v>
       </c>
       <c r="CW137">
         <v>0</v>
@@ -45414,7 +45414,7 @@
         <v>0</v>
       </c>
       <c r="DA137">
-        <v>0.4637851802069271</v>
+        <v>0.4677669364959242</v>
       </c>
     </row>
     <row r="138" spans="1:105">
@@ -46098,7 +46098,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -46212,7 +46212,7 @@
         <v>0</v>
       </c>
       <c r="BB140">
-        <v>18.03191489361702</v>
+        <v>22.97872340425532</v>
       </c>
       <c r="BC140">
         <v>0</v>
@@ -46326,7 +46326,7 @@
         <v>0</v>
       </c>
       <c r="CN140">
-        <v>0.2774140752864157</v>
+        <v>0.353518821603928</v>
       </c>
       <c r="CO140">
         <v>0</v>
@@ -46365,7 +46365,7 @@
         <v>0</v>
       </c>
       <c r="DA140">
-        <v>0.6943361033749141</v>
+        <v>0.6974597126550566</v>
       </c>
     </row>
     <row r="141" spans="1:105">
@@ -48634,7 +48634,7 @@
         <v>0</v>
       </c>
       <c r="P148">
-        <v>8</v>
+        <v>448</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>3625</v>
+        <v>3655</v>
       </c>
       <c r="Y148">
         <v>0</v>
@@ -48748,7 +48748,7 @@
         <v>0</v>
       </c>
       <c r="BB148">
-        <v>7.619047619047619</v>
+        <v>426.6666666666666</v>
       </c>
       <c r="BC148">
         <v>0</v>
@@ -48772,7 +48772,7 @@
         <v>0</v>
       </c>
       <c r="BJ148">
-        <v>322.2222222222223</v>
+        <v>324.8888888888889</v>
       </c>
       <c r="BK148">
         <v>0</v>
@@ -48862,7 +48862,7 @@
         <v>0</v>
       </c>
       <c r="CN148">
-        <v>0.1172161172161172</v>
+        <v>6.564102564102564</v>
       </c>
       <c r="CO148">
         <v>0</v>
@@ -48886,7 +48886,7 @@
         <v>0</v>
       </c>
       <c r="CV148">
-        <v>0.4438322620140803</v>
+        <v>0.4475053565962657</v>
       </c>
       <c r="CW148">
         <v>0</v>
@@ -48901,7 +48901,7 @@
         <v>0</v>
       </c>
       <c r="DA148">
-        <v>0.5773942332920033</v>
+        <v>0.6653290697449453</v>
       </c>
     </row>
     <row r="149" spans="1:105">
@@ -49268,7 +49268,7 @@
         <v>0</v>
       </c>
       <c r="P150">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -49382,7 +49382,7 @@
         <v>0</v>
       </c>
       <c r="BB150">
-        <v>3.564356435643564</v>
+        <v>240</v>
       </c>
       <c r="BC150">
         <v>0</v>
@@ -49496,7 +49496,7 @@
         <v>0</v>
       </c>
       <c r="CN150">
-        <v>0.05483625285605483</v>
+        <v>3.692307692307692</v>
       </c>
       <c r="CO150">
         <v>0</v>
@@ -49535,7 +49535,7 @@
         <v>0</v>
       </c>
       <c r="DA150">
-        <v>0.4411386235903612</v>
+        <v>0.4864555861393455</v>
       </c>
     </row>
     <row r="151" spans="1:105">
@@ -50536,7 +50536,7 @@
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q154">
         <v>0</v>
@@ -51804,7 +51804,7 @@
         <v>0</v>
       </c>
       <c r="P158">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -51828,7 +51828,7 @@
         <v>0</v>
       </c>
       <c r="X158">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="Y158">
         <v>0</v>
@@ -51918,7 +51918,7 @@
         <v>0</v>
       </c>
       <c r="BB158">
-        <v>4.705882352941177</v>
+        <v>43.92156862745098</v>
       </c>
       <c r="BC158">
         <v>0</v>
@@ -51942,7 +51942,7 @@
         <v>0</v>
       </c>
       <c r="BJ158">
-        <v>398.7499999999999</v>
+        <v>402.9166666666666</v>
       </c>
       <c r="BK158">
         <v>0</v>
@@ -52032,7 +52032,7 @@
         <v>0</v>
       </c>
       <c r="CN158">
-        <v>0.07239819004524888</v>
+        <v>0.6757164404223228</v>
       </c>
       <c r="CO158">
         <v>0</v>
@@ -52056,7 +52056,7 @@
         <v>0</v>
       </c>
       <c r="CV158">
-        <v>0.5492424242424242</v>
+        <v>0.554981634527089</v>
       </c>
       <c r="CW158">
         <v>0</v>
@@ -52071,7 +52071,7 @@
         <v>0</v>
       </c>
       <c r="DA158">
-        <v>0.5385766066474184</v>
+        <v>0.5523030824895235</v>
       </c>
     </row>
     <row r="159" spans="1:105">
@@ -53392,7 +53392,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -53416,7 +53416,7 @@
         <v>0</v>
       </c>
       <c r="Y163">
-        <v>2212</v>
+        <v>2238</v>
       </c>
       <c r="Z163">
         <v>0</v>
@@ -53506,7 +53506,7 @@
         <v>0</v>
       </c>
       <c r="BC163">
-        <v>5.294117647058823</v>
+        <v>42.35294117647059</v>
       </c>
       <c r="BD163">
         <v>0</v>
@@ -53530,7 +53530,7 @@
         <v>0</v>
       </c>
       <c r="BK163">
-        <v>1195.675675675676</v>
+        <v>1209.72972972973</v>
       </c>
       <c r="BL163">
         <v>0</v>
@@ -53620,7 +53620,7 @@
         <v>0</v>
       </c>
       <c r="CO163">
-        <v>0.08144796380090498</v>
+        <v>0.6515837104072398</v>
       </c>
       <c r="CP163">
         <v>0</v>
@@ -53644,7 +53644,7 @@
         <v>0</v>
       </c>
       <c r="CW163">
-        <v>1.646936192390738</v>
+        <v>1.666294393567121</v>
       </c>
       <c r="CX163">
         <v>0</v>
@@ -53656,7 +53656,7 @@
         <v>0</v>
       </c>
       <c r="DA163">
-        <v>0.5428019681481965</v>
+        <v>0.5465804162470197</v>
       </c>
     </row>
     <row r="164" spans="1:105">
@@ -54050,7 +54050,7 @@
         <v>0</v>
       </c>
       <c r="Y165">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="Z165">
         <v>0</v>
@@ -54164,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="BK165">
-        <v>1501.363636363636</v>
+        <v>1512.272727272727</v>
       </c>
       <c r="BL165">
         <v>0</v>
@@ -54278,7 +54278,7 @@
         <v>0</v>
       </c>
       <c r="CW165">
-        <v>2.067993989481593</v>
+        <v>2.083020285499625</v>
       </c>
       <c r="CX165">
         <v>0</v>
@@ -54290,7 +54290,7 @@
         <v>0</v>
       </c>
       <c r="DA165">
-        <v>0.3498936627873613</v>
+        <v>0.3499689911483951</v>
       </c>
     </row>
     <row r="166" spans="1:105">
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="P168">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="Q168">
         <v>0</v>
@@ -54998,7 +54998,7 @@
         <v>0</v>
       </c>
       <c r="X168">
-        <v>2537</v>
+        <v>2553</v>
       </c>
       <c r="Y168">
         <v>0</v>
@@ -55088,7 +55088,7 @@
         <v>0</v>
       </c>
       <c r="BB168">
-        <v>0.1382488479262673</v>
+        <v>21.56682027649769</v>
       </c>
       <c r="BC168">
         <v>0</v>
@@ -55112,7 +55112,7 @@
         <v>0</v>
       </c>
       <c r="BJ168">
-        <v>585.4615384615385</v>
+        <v>589.1538461538462</v>
       </c>
       <c r="BK168">
         <v>0</v>
@@ -55202,7 +55202,7 @@
         <v>0</v>
       </c>
       <c r="CN168">
-        <v>0.002126905352711804</v>
+        <v>0.3317972350230414</v>
       </c>
       <c r="CO168">
         <v>0</v>
@@ -55226,7 +55226,7 @@
         <v>0</v>
       </c>
       <c r="CV168">
-        <v>0.8064208518753974</v>
+        <v>0.8115066751430389</v>
       </c>
       <c r="CW168">
         <v>0</v>
@@ -55241,7 +55241,7 @@
         <v>0</v>
       </c>
       <c r="DA168">
-        <v>0.5022387250790655</v>
+        <v>0.5307817646375771</v>
       </c>
     </row>
     <row r="169" spans="1:105">
@@ -56876,7 +56876,7 @@
         <v>0</v>
       </c>
       <c r="P174">
-        <v>371</v>
+        <v>1228</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -56900,7 +56900,7 @@
         <v>0</v>
       </c>
       <c r="X174">
-        <v>13159</v>
+        <v>13224</v>
       </c>
       <c r="Y174">
         <v>0</v>
@@ -56990,7 +56990,7 @@
         <v>0</v>
       </c>
       <c r="BB174">
-        <v>18.44241922120961</v>
+        <v>61.04391052195526</v>
       </c>
       <c r="BC174">
         <v>0</v>
@@ -57014,7 +57014,7 @@
         <v>0</v>
       </c>
       <c r="BJ174">
-        <v>425.1696284329564</v>
+        <v>427.269789983845</v>
       </c>
       <c r="BK174">
         <v>0</v>
@@ -57104,7 +57104,7 @@
         <v>0</v>
       </c>
       <c r="CN174">
-        <v>0.2837295264801479</v>
+        <v>0.9391370849531578</v>
       </c>
       <c r="CO174">
         <v>0</v>
@@ -57128,7 +57128,7 @@
         <v>0</v>
       </c>
       <c r="CV174">
-        <v>0.5856330970150915</v>
+        <v>0.5885258815204476</v>
       </c>
       <c r="CW174">
         <v>0</v>
@@ -57143,7 +57143,7 @@
         <v>0</v>
       </c>
       <c r="DA174">
-        <v>0.4265371921174108</v>
+        <v>0.6061197905172686</v>
       </c>
     </row>
     <row r="175" spans="1:105">
@@ -59412,7 +59412,7 @@
         <v>0</v>
       </c>
       <c r="P182">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q182">
         <v>0</v>
@@ -59526,7 +59526,7 @@
         <v>0</v>
       </c>
       <c r="BB182">
-        <v>17.96954314720812</v>
+        <v>21.6243654822335</v>
       </c>
       <c r="BC182">
         <v>0</v>
@@ -59640,7 +59640,7 @@
         <v>0</v>
       </c>
       <c r="CN182">
-        <v>0.276454509957048</v>
+        <v>0.3326825458805154</v>
       </c>
       <c r="CO182">
         <v>0</v>
@@ -59679,7 +59679,7 @@
         <v>0</v>
       </c>
       <c r="DA182">
-        <v>0.9760255352601388</v>
+        <v>0.978878206668051</v>
       </c>
     </row>
     <row r="183" spans="1:105">
@@ -60680,7 +60680,7 @@
         <v>0</v>
       </c>
       <c r="P186">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -60704,7 +60704,7 @@
         <v>0</v>
       </c>
       <c r="X186">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="Y186">
         <v>0</v>
@@ -60794,7 +60794,7 @@
         <v>0</v>
       </c>
       <c r="BB186">
-        <v>2.307692307692307</v>
+        <v>6.923076923076922</v>
       </c>
       <c r="BC186">
         <v>0</v>
@@ -60818,7 +60818,7 @@
         <v>0</v>
       </c>
       <c r="BJ186">
-        <v>227.3684210526316</v>
+        <v>284.2105263157895</v>
       </c>
       <c r="BK186">
         <v>0</v>
@@ -60908,7 +60908,7 @@
         <v>0</v>
       </c>
       <c r="CN186">
-        <v>0.03550295857988165</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="CO186">
         <v>0</v>
@@ -60932,7 +60932,7 @@
         <v>0</v>
       </c>
       <c r="CV186">
-        <v>0.313179643323184</v>
+        <v>0.39147455415398</v>
       </c>
       <c r="CW186">
         <v>0</v>
@@ -60947,7 +60947,7 @@
         <v>0</v>
       </c>
       <c r="DA186">
-        <v>0.2562893490840162</v>
+        <v>0.256919738642017</v>
       </c>
     </row>
     <row r="187" spans="1:105">
@@ -60997,7 +60997,7 @@
         <v>0</v>
       </c>
       <c r="P187">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -61111,7 +61111,7 @@
         <v>0</v>
       </c>
       <c r="BB187">
-        <v>28.96551724137931</v>
+        <v>94.25287356321837</v>
       </c>
       <c r="BC187">
         <v>0</v>
@@ -61225,7 +61225,7 @@
         <v>0</v>
       </c>
       <c r="CN187">
-        <v>0.4456233421750663</v>
+        <v>1.450044208664898</v>
       </c>
       <c r="CO187">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>0</v>
       </c>
       <c r="DA187">
-        <v>0.8444983889715926</v>
+        <v>0.8791564860305358</v>
       </c>
     </row>
     <row r="188" spans="1:105">
@@ -61341,7 +61341,7 @@
         <v>0</v>
       </c>
       <c r="Y188">
-        <v>1112</v>
+        <v>1126</v>
       </c>
       <c r="Z188">
         <v>0</v>
@@ -61455,7 +61455,7 @@
         <v>0</v>
       </c>
       <c r="BK188">
-        <v>1803.243243243243</v>
+        <v>1825.945945945946</v>
       </c>
       <c r="BL188">
         <v>0</v>
@@ -61569,7 +61569,7 @@
         <v>0</v>
       </c>
       <c r="CW188">
-        <v>2.483806120169756</v>
+        <v>2.515077060531606</v>
       </c>
       <c r="CX188">
         <v>0</v>
@@ -61581,7 +61581,7 @@
         <v>0</v>
       </c>
       <c r="DA188">
-        <v>0.4425899945114434</v>
+        <v>0.4427495621287911</v>
       </c>
     </row>
     <row r="189" spans="1:105">
@@ -62265,7 +62265,7 @@
         <v>0</v>
       </c>
       <c r="P191">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -62289,7 +62289,7 @@
         <v>0</v>
       </c>
       <c r="X191">
-        <v>967</v>
+        <v>997</v>
       </c>
       <c r="Y191">
         <v>0</v>
@@ -62379,7 +62379,7 @@
         <v>0</v>
       </c>
       <c r="BB191">
-        <v>8.650306748466258</v>
+        <v>11.77914110429448</v>
       </c>
       <c r="BC191">
         <v>0</v>
@@ -62403,7 +62403,7 @@
         <v>0</v>
       </c>
       <c r="BJ191">
-        <v>666.8965517241378</v>
+        <v>687.5862068965516</v>
       </c>
       <c r="BK191">
         <v>0</v>
@@ -62493,7 +62493,7 @@
         <v>0</v>
       </c>
       <c r="CN191">
-        <v>0.1330816422840963</v>
+        <v>0.1812175554506843</v>
       </c>
       <c r="CO191">
         <v>0</v>
@@ -62517,7 +62517,7 @@
         <v>0</v>
       </c>
       <c r="CV191">
-        <v>0.9185902916310438</v>
+        <v>0.9470884392514485</v>
       </c>
       <c r="CW191">
         <v>0</v>
@@ -62532,7 +62532,7 @@
         <v>0</v>
       </c>
       <c r="DA191">
-        <v>0.6115474109038069</v>
+        <v>0.614525392964653</v>
       </c>
     </row>
     <row r="192" spans="1:105">
@@ -63850,7 +63850,7 @@
         <v>0</v>
       </c>
       <c r="P196">
-        <v>256</v>
+        <v>1357</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -63874,7 +63874,7 @@
         <v>0</v>
       </c>
       <c r="X196">
-        <v>5513</v>
+        <v>6037</v>
       </c>
       <c r="Y196">
         <v>0</v>
@@ -63964,7 +63964,7 @@
         <v>0</v>
       </c>
       <c r="BB196">
-        <v>13.78815080789946</v>
+        <v>73.08797127468581</v>
       </c>
       <c r="BC196">
         <v>0</v>
@@ -63988,7 +63988,7 @@
         <v>0</v>
       </c>
       <c r="BJ196">
-        <v>345.6426332288401</v>
+        <v>378.4952978056426</v>
       </c>
       <c r="BK196">
         <v>0</v>
@@ -64078,7 +64078,7 @@
         <v>0</v>
       </c>
       <c r="CN196">
-        <v>0.2121253970446071</v>
+        <v>1.124430327302859</v>
       </c>
       <c r="CO196">
         <v>0</v>
@@ -64102,7 +64102,7 @@
         <v>0</v>
       </c>
       <c r="CV196">
-        <v>0.4760917813069423</v>
+        <v>0.5213433854072212</v>
       </c>
       <c r="CW196">
         <v>0</v>
@@ -64117,7 +64117,7 @@
         <v>0</v>
       </c>
       <c r="DA196">
-        <v>0.5259586267359273</v>
+        <v>0.7756907684827241</v>
       </c>
     </row>
     <row r="197" spans="1:105">
@@ -64801,7 +64801,7 @@
         <v>0</v>
       </c>
       <c r="P199">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -64915,7 +64915,7 @@
         <v>0</v>
       </c>
       <c r="BB199">
-        <v>16.24454148471616</v>
+        <v>31.4410480349345</v>
       </c>
       <c r="BC199">
         <v>0</v>
@@ -65029,7 +65029,7 @@
         <v>0</v>
       </c>
       <c r="CN199">
-        <v>0.249916022841787</v>
+        <v>0.4837084313066846</v>
       </c>
       <c r="CO199">
         <v>0</v>
@@ -65068,7 +65068,7 @@
         <v>0</v>
       </c>
       <c r="DA199">
-        <v>0.5485020427322709</v>
+        <v>0.5626881745654615</v>
       </c>
     </row>
     <row r="200" spans="1:105">
@@ -65118,7 +65118,7 @@
         <v>0</v>
       </c>
       <c r="P200">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -65435,7 +65435,7 @@
         <v>0</v>
       </c>
       <c r="P201">
-        <v>156</v>
+        <v>1632</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -65459,7 +65459,7 @@
         <v>0</v>
       </c>
       <c r="X201">
-        <v>12840</v>
+        <v>12853</v>
       </c>
       <c r="Y201">
         <v>0</v>
@@ -65549,7 +65549,7 @@
         <v>0</v>
       </c>
       <c r="BB201">
-        <v>18.24561403508772</v>
+        <v>190.8771929824561</v>
       </c>
       <c r="BC201">
         <v>0</v>
@@ -65573,7 +65573,7 @@
         <v>0</v>
       </c>
       <c r="BJ201">
-        <v>374.3440233236152</v>
+        <v>374.7230320699709</v>
       </c>
       <c r="BK201">
         <v>0</v>
@@ -65663,7 +65663,7 @@
         <v>0</v>
       </c>
       <c r="CN201">
-        <v>0.2807017543859649</v>
+        <v>2.936572199730094</v>
       </c>
       <c r="CO201">
         <v>0</v>
@@ -65687,7 +65687,7 @@
         <v>0</v>
       </c>
       <c r="CV201">
-        <v>0.5156253764788088</v>
+        <v>0.5161474270936238</v>
       </c>
       <c r="CW201">
         <v>0</v>
@@ -65702,7 +65702,7 @@
         <v>0</v>
       </c>
       <c r="DA201">
-        <v>0.2504034689071249</v>
+        <v>0.4249695831853003</v>
       </c>
     </row>
     <row r="202" spans="1:105">
@@ -67020,7 +67020,7 @@
         <v>0</v>
       </c>
       <c r="P206">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -67044,7 +67044,7 @@
         <v>0</v>
       </c>
       <c r="X206">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="Y206">
         <v>0</v>
@@ -67134,7 +67134,7 @@
         <v>0</v>
       </c>
       <c r="BB206">
-        <v>4.954128440366973</v>
+        <v>5.321100917431194</v>
       </c>
       <c r="BC206">
         <v>0</v>
@@ -67158,7 +67158,7 @@
         <v>0</v>
       </c>
       <c r="BJ206">
-        <v>66.38297872340425</v>
+        <v>92.55319148936169</v>
       </c>
       <c r="BK206">
         <v>0</v>
@@ -67248,7 +67248,7 @@
         <v>0</v>
       </c>
       <c r="CN206">
-        <v>0.07621736062103035</v>
+        <v>0.08186309103740298</v>
       </c>
       <c r="CO206">
         <v>0</v>
@@ -67272,7 +67272,7 @@
         <v>0</v>
       </c>
       <c r="CV206">
-        <v>0.09143660981185159</v>
+        <v>0.1274837348338315</v>
       </c>
       <c r="CW206">
         <v>0</v>
@@ -67287,7 +67287,7 @@
         <v>0</v>
       </c>
       <c r="DA206">
-        <v>0.4829442583528707</v>
+        <v>0.4835209448790601</v>
       </c>
     </row>
     <row r="207" spans="1:105">
@@ -67654,7 +67654,7 @@
         <v>0</v>
       </c>
       <c r="P208">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -67678,7 +67678,7 @@
         <v>0</v>
       </c>
       <c r="X208">
-        <v>1396</v>
+        <v>1430</v>
       </c>
       <c r="Y208">
         <v>0</v>
@@ -67768,7 +67768,7 @@
         <v>0</v>
       </c>
       <c r="BB208">
-        <v>2.926829268292683</v>
+        <v>213.6585365853659</v>
       </c>
       <c r="BC208">
         <v>0</v>
@@ -67792,7 +67792,7 @@
         <v>0</v>
       </c>
       <c r="BJ208">
-        <v>367.3684210526316</v>
+        <v>376.3157894736842</v>
       </c>
       <c r="BK208">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="CN208">
-        <v>0.0450281425891182</v>
+        <v>3.287054409005628</v>
       </c>
       <c r="CO208">
         <v>0</v>
@@ -67906,7 +67906,7 @@
         <v>0</v>
       </c>
       <c r="CV208">
-        <v>0.5060171088879223</v>
+        <v>0.518341307814992</v>
       </c>
       <c r="CW208">
         <v>0</v>
@@ -67921,7 +67921,7 @@
         <v>0</v>
       </c>
       <c r="DA208">
-        <v>0.6383552303800413</v>
+        <v>0.6599515699629289</v>
       </c>
     </row>
     <row r="209" spans="1:105">
